--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park_PC/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park_PC/SufferTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6021786-4F9D-3A4B-B612-B9336F9498A3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -409,6 +409,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
